--- a/SCBAA/2020/Region 5.xlsx
+++ b/SCBAA/2020/Region 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E48F7-A117-4583-87EB-B0A3AD98C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7A66C4-4CFE-4EE4-9580-52B4DBDC9606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="240" windowWidth="14625" windowHeight="12540" firstSheet="1" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Legazpi" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -256,7 +263,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +382,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,7 +447,7 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -537,6 +550,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -863,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" activeCellId="4" sqref="E96:E110 E42:E92 E21:E36 E15:E19 E11:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +1007,9 @@
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -996,7 +1018,9 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -1005,7 +1029,9 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1015,7 +1041,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
+        <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
     </row>
@@ -1035,7 +1061,9 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1044,7 +1072,9 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1053,7 +1083,9 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1062,7 +1094,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="19">
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1080,7 +1115,9 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="35"/>
+      <c r="E21" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1089,7 +1126,9 @@
         <v>32</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1098,7 +1137,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1107,7 +1146,9 @@
       <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1116,7 +1157,9 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1125,7 +1168,9 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1134,7 +1179,9 @@
       <c r="D27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -1152,7 +1199,9 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1161,7 +1210,9 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="43">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -1170,7 +1221,9 @@
         <v>41</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1188,7 +1241,9 @@
       <c r="D33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -1197,7 +1252,9 @@
       <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -1206,7 +1263,9 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="35"/>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -1215,7 +1274,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="35"/>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -1234,7 +1295,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="26"/>
+      <c r="E38" s="29"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -1270,7 +1331,9 @@
       <c r="D42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="35"/>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -1279,7 +1342,9 @@
       <c r="D43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="35"/>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -1288,7 +1353,9 @@
       <c r="D44" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="35"/>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -1297,7 +1364,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -1306,7 +1373,9 @@
       <c r="D46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="35"/>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -1315,7 +1384,9 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="35"/>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -1324,7 +1395,9 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="35"/>
+      <c r="E48" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -1342,7 +1415,9 @@
       <c r="D50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="35"/>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -1351,7 +1426,9 @@
       <c r="D51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="35"/>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -1360,7 +1437,9 @@
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="34"/>
+      <c r="E52" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -1378,7 +1457,9 @@
       <c r="D54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -1387,7 +1468,9 @@
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="35"/>
+      <c r="E55" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -1396,7 +1479,9 @@
       <c r="D56" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -1405,7 +1490,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -1414,7 +1499,9 @@
       <c r="D58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="35"/>
+      <c r="E58" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -1423,7 +1510,9 @@
       <c r="D59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="35"/>
+      <c r="E59" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -1432,7 +1521,9 @@
       <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="35"/>
+      <c r="E60" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -1450,7 +1541,9 @@
       <c r="D62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="35"/>
+      <c r="E62" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -1459,7 +1552,9 @@
       <c r="D63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="35"/>
+      <c r="E63" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -1468,7 +1563,9 @@
       <c r="D64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="35"/>
+      <c r="E64" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -1486,7 +1583,9 @@
       <c r="D66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="35"/>
+      <c r="E66" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -1495,7 +1594,9 @@
       <c r="D67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="35"/>
+      <c r="E67" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -1504,7 +1605,9 @@
       <c r="D68" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="35"/>
+      <c r="E68" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -1522,7 +1625,9 @@
       <c r="D70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -1531,7 +1636,9 @@
       <c r="D71" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="23"/>
+      <c r="E71" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -1540,7 +1647,9 @@
       <c r="D72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="28"/>
+      <c r="E72" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -1567,7 +1676,9 @@
       <c r="D75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E75" s="18"/>
+      <c r="E75" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -1576,7 +1687,9 @@
       <c r="D76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="18"/>
+      <c r="E76" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -1585,7 +1698,7 @@
         <v>54</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="23"/>
+      <c r="E77" s="43"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -1594,7 +1707,9 @@
       <c r="D78" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="35"/>
+      <c r="E78" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -1603,7 +1718,9 @@
       <c r="D79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="35"/>
+      <c r="E79" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -1612,7 +1729,7 @@
         <v>55</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="22"/>
+      <c r="E80" s="42"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -1621,7 +1738,9 @@
       <c r="D81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="35"/>
+      <c r="E81" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
@@ -1630,7 +1749,9 @@
       <c r="D82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="35"/>
+      <c r="E82" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -1648,7 +1769,9 @@
       <c r="D84" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="29"/>
+      <c r="E84" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -1657,7 +1780,9 @@
       <c r="D85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="29"/>
+      <c r="E85" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -1675,7 +1800,9 @@
       <c r="D87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="35"/>
+      <c r="E87" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -1684,7 +1811,9 @@
       <c r="D88" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="23"/>
+      <c r="E88" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -1702,7 +1831,9 @@
       <c r="D90" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="35"/>
+      <c r="E90" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -1711,7 +1842,9 @@
       <c r="D91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E91" s="35"/>
+      <c r="E91" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -1720,7 +1853,9 @@
       <c r="D92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="36"/>
+      <c r="E92" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
@@ -1759,7 +1894,9 @@
       <c r="D96" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="33"/>
+      <c r="E96" s="18">
+        <v>0</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="8"/>
       <c r="I96" s="9"/>
@@ -1783,7 +1920,9 @@
       <c r="D98" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="33"/>
+      <c r="E98" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
@@ -1799,7 +1938,9 @@
       <c r="D100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="33"/>
+      <c r="E100" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
@@ -1815,7 +1956,9 @@
       <c r="D102" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="18"/>
+      <c r="E102" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
@@ -1831,7 +1974,9 @@
       <c r="D104" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E104" s="18"/>
+      <c r="E104" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
@@ -1847,7 +1992,9 @@
       <c r="D106" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="34"/>
+      <c r="E106" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
@@ -1863,7 +2010,9 @@
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="33"/>
+      <c r="E108" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
@@ -1880,7 +2029,9 @@
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="18"/>
+      <c r="E110" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
@@ -7872,7 +8023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DDB8D1-CBA9-451C-AF6C-E3E4CA57A4D6}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>

--- a/SCBAA/2020/Region 5.xlsx
+++ b/SCBAA/2020/Region 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7A66C4-4CFE-4EE4-9580-52B4DBDC9606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099EEB00-FE10-45BF-A044-AF3A6A62A6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Legazpi" sheetId="1" r:id="rId1"/>
@@ -539,6 +539,13 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -550,13 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -883,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
@@ -896,54 +896,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -957,22 +957,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1018,7 +1018,7 @@
       <c r="D12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       <c r="D18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="41">
+      <c r="E21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1157,7 +1157,7 @@
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       <c r="D29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="D30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>54</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="43"/>
+      <c r="E77" s="39"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -1729,7 +1729,7 @@
         <v>55</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="42"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -2085,54 +2085,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2146,22 +2146,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3274,54 +3274,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3335,22 +3335,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4450,8 +4450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC647E1-5327-4EE4-98EB-10DBAC6D7942}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,54 +4463,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4524,22 +4524,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -4608,7 +4608,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>88748331.219999999</v>
       </c>
     </row>
@@ -4662,7 +4661,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>42389621.090000004</v>
       </c>
     </row>
@@ -4778,7 +4776,6 @@
         <v>40</v>
       </c>
       <c r="E30" s="33">
-        <f>2248000+122660.39</f>
         <v>2370660.39</v>
       </c>
     </row>
@@ -4854,7 +4851,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>862819008.00999987</v>
       </c>
     </row>
@@ -5411,7 +5407,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="35">
-        <f>22000+49092305</f>
         <v>49114305</v>
       </c>
     </row>
@@ -5432,7 +5427,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>745506235.28999984</v>
       </c>
     </row>
@@ -5607,7 +5601,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>15845397.380000001</v>
       </c>
     </row>
@@ -5619,7 +5612,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>761351632.66999984</v>
       </c>
     </row>
@@ -5654,54 +5646,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5715,22 +5707,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -6830,8 +6822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00879A72-461A-4487-B363-35C011A37554}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6843,54 +6835,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6904,22 +6896,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -6977,7 +6969,6 @@
         <v>26</v>
       </c>
       <c r="E13" s="35">
-        <f>1020278.36+3400426.48</f>
         <v>4420704.84</v>
       </c>
     </row>
@@ -6989,7 +6980,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>66063381.840000004</v>
       </c>
     </row>
@@ -7043,7 +7033,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>37501221.980000004</v>
       </c>
     </row>
@@ -7234,7 +7223,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>711132811.82000005</v>
       </c>
     </row>
@@ -7780,7 +7768,6 @@
         <v>58</v>
       </c>
       <c r="E90" s="35">
-        <f>20016830.67+1446643+4512000</f>
         <v>25975473.670000002</v>
       </c>
     </row>
@@ -7792,7 +7779,6 @@
         <v>50</v>
       </c>
       <c r="E91" s="35">
-        <f>52826299.94+37892064.83+2084266</f>
         <v>92802630.769999996</v>
       </c>
     </row>
@@ -7804,7 +7790,6 @@
         <v>51</v>
       </c>
       <c r="E92" s="36">
-        <f>135330830+596500</f>
         <v>135927330</v>
       </c>
     </row>
@@ -7814,7 +7799,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>903162734.04999995</v>
       </c>
     </row>
@@ -7989,7 +7973,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>19265260.689999998</v>
       </c>
     </row>
@@ -8001,7 +7984,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>922427994.74000001</v>
       </c>
     </row>
@@ -8036,54 +8018,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -8097,22 +8079,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
